--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +522,117 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.876175666666667</v>
+      </c>
+      <c r="H2">
+        <v>5.628527</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M2">
+        <v>0.1753453333333333</v>
+      </c>
+      <c r="N2">
+        <v>0.5260359999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.414882210303281</v>
+      </c>
+      <c r="P2">
+        <v>0.5154067662594317</v>
+      </c>
+      <c r="Q2">
+        <v>0.3289786476635556</v>
+      </c>
+      <c r="R2">
+        <v>2.960807828972</v>
+      </c>
+      <c r="S2">
+        <v>0.414882210303281</v>
+      </c>
+      <c r="T2">
+        <v>0.5154067662594317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.63624103733127</v>
-      </c>
-      <c r="H2">
-        <v>1.63624103733127</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.230535462352324</v>
-      </c>
-      <c r="N2">
-        <v>0.230535462352324</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.3772115840610105</v>
-      </c>
-      <c r="R2">
-        <v>0.3772115840610105</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.876175666666667</v>
+      </c>
+      <c r="H3">
+        <v>5.628527</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.2472935</v>
+      </c>
+      <c r="N3">
+        <v>0.494587</v>
+      </c>
+      <c r="O3">
+        <v>0.585117789696719</v>
+      </c>
+      <c r="P3">
+        <v>0.4845932337405682</v>
+      </c>
+      <c r="Q3">
+        <v>0.4639660472248333</v>
+      </c>
+      <c r="R3">
+        <v>2.783796283349</v>
+      </c>
+      <c r="S3">
+        <v>0.585117789696719</v>
+      </c>
+      <c r="T3">
+        <v>0.4845932337405682</v>
       </c>
     </row>
   </sheetData>
